--- a/loaded_influencer_data/pixie.ugc/pixie.ugc_video.xlsx
+++ b/loaded_influencer_data/pixie.ugc/pixie.ugc_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,66 +506,66 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@pixie.ugc/video/7485444418925776150</t>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@pixie.ugc/video/7489170413642173718</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>339</v>
+        <v>233</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>🚨 Dry, tight skin? Meet @Meina Organics ’s Bakuchiol + CICA + Peptide cream, it hydrates, soothes &amp; smooths for the ultimate glow! ✨</t>
+          <t>선키스 &amp; 실버 스택 - 올 여름 모든 소녀가 필요로 하는 보석 팔찌✨☀️ 완벽한 여름 글로우 업!#SilverVibes</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4.71976401179941</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="I2" t="n">
-        <v>4.424778761061947</v>
+        <v>3.862660944206009</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2949852507374631</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2949852507374631</v>
+        <v>1.28755364806867</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-04</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@pixie.ugc/video/7483870312669515030</t>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@pixie.ugc/video/7487542198196800790</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74</v>
+        <v>296</v>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
         <v>4</v>
@@ -574,96 +574,95 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>UGC에서 휴식을 취한 미니 브이로그 🫶#contentcreator #ugccommunity #creatorsearchinsights</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>11.82432432432432</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10.47297297297297</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.351351351351351</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.6756756756756757</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@pixie.ugc/video/7485444418925776150</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>362</v>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>UK summer is pending!! Let’s go!! #contentcreator #influencers #ugccommunity #creatorsearchinsights</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>36.48648648648648</v>
-      </c>
-      <c r="I3" t="n">
-        <v>31.08108108108108</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5.405405405405405</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.351351351351351</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@pixie.ugc/video/7483500173096717590</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>429</v>
-      </c>
-      <c r="C4" t="n">
-        <v>41</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2 days itinerary in Paris 📍
-Including location 🫶#ugccommunity #ugctravel #weekendtrip</t>
+          <t>🚨 건조하고 타이트한 피부? "s Bakuchiol + CICA + 펩타이드 크림을 만나보세요. 수분을 공급하고 진정시키고 매끄럽게 하여 최고의 광채를 선사합니다! ✨</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>11.88811188811189</v>
+        <v>6.077348066298343</v>
       </c>
       <c r="I4" t="n">
-        <v>9.557109557109557</v>
+        <v>5.524861878453039</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2.331002331002331</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="L4" t="n">
-        <v>1.165501165501166</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-25</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@pixie.ugc/photo/7483235360370068758</t>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@pixie.ugc/video/7483870312669515030</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>348</v>
+        <v>83</v>
       </c>
       <c r="C5" t="n">
         <v>27</v>
@@ -675,805 +674,805 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>It’s actually so possible to do a quick weekend trip! Here’s what I did #travelcontent #paris #weekendtrip</t>
+          <t>영국 여름이 보류 중입니다!! 가자!!#contentcreator #influencers #ugccommunity #creatorsearchinsights</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8.908045977011495</v>
+        <v>37.34939759036144</v>
       </c>
       <c r="I5" t="n">
-        <v>7.758620689655173</v>
+        <v>32.53012048192771</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.149425287356322</v>
+        <v>4.819277108433735</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.204819277108434</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@pixie.ugc/video/7483500173096717590</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>499</v>
+      </c>
+      <c r="C6" t="n">
+        <v>44</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>파리에서의 이틀간의 여행📍 위치 포함 🫶#ugccommunity #ugctravel #weekendtrip #traveltiktok</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10.82164328657315</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8.817635270541082</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.004008016032064</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.002004008016032</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@pixie.ugc/photo/7483235360370068758</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>351</v>
+      </c>
+      <c r="C7" t="n">
+        <v>29</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>실제로 빠른 주말 여행을 할 수 있습니다! 내가 한 일은 다음과 같습니다.#travelcontent #paris #weekendtrip</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9.401709401709402</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8.262108262108262</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.13960113960114</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pixie.ugc/video/7482774962105847062</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>502</v>
-      </c>
-      <c r="C6" t="n">
-        <v>37</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="B8" t="n">
+        <v>505</v>
+      </c>
+      <c r="C8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D8" t="n">
         <v>13</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>6</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Weekend in london - Borough Market edition 📍 #ugctravel #travelcontent #ugccommunity #dayoutinlondon</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9.960159362549801</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7.370517928286853</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.589641434262948</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.195219123505976</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>런던의 주말 - Borough Market 에디션 📍#ugctravel #travelcontent #ugccommunity #dayoutinlondon</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10.0990099009901</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.524752475247524</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.574257425742574</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.188118811881188</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pixie.ugc/video/7482513740999576854</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>481</v>
-      </c>
-      <c r="C7" t="n">
-        <v>74</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="B9" t="n">
+        <v>483</v>
+      </c>
+      <c r="C9" t="n">
+        <v>75</v>
+      </c>
+      <c r="D9" t="n">
         <v>7</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>2</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Weekend in london - Borough Market edition 📍 #ugctravel #travelcontent #ugccommunity #dayoutinlondon</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>16.83991683991684</v>
-      </c>
-      <c r="I7" t="n">
-        <v>15.38461538461539</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.455301455301455</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.4158004158004158</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>어려운 질문입니다. 가끔은 잘 모르겠지만 여행 UGC는 확실히 제가 찾고 있던 것이지만 스킨케어와 라이프 스타일은 확실히!</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>16.97722567287785</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15.527950310559</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.449275362318841</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.4140786749482402</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pixie.ugc/video/7482131486737468694</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>344</v>
-      </c>
-      <c r="C8" t="n">
-        <v>74</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="B10" t="n">
+        <v>345</v>
+      </c>
+      <c r="C10" t="n">
+        <v>36</v>
+      </c>
+      <c r="D10" t="n">
         <v>2</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>It’s hard question: sometimes I’m not even sure, will say travel UGC is definitely something I’ve been looking into for sure but skincare and lifestyle definitely!</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>23.54651162790698</v>
-      </c>
-      <c r="I8" t="n">
-        <v>21.51162790697675</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.034883720930233</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.5813953488372093</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2025-03-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>맨얼굴+맑은 피부 🫶#creatorsearchinsights #SkinTok #NoFilterGlow</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>11.01449275362319</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10.43478260869565</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.5797101449275363</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pixie.ugc/video/7482130334327360790</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B11" t="n">
         <v>315</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C11" t="n">
         <v>36</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D11" t="n">
         <v>2</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>Bare face + clear skin 🫶#creatorsearchinsights #SkinTok #NoFilterGlow</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H11" t="n">
         <v>12.06349206349206</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I11" t="n">
         <v>11.42857142857143</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.6349206349206349</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pixie.ugc/video/7481766638392478998</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B12" t="n">
         <v>411</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C12" t="n">
         <v>18</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D12" t="n">
         <v>6</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>1</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>My dry skin has NEVER felt this soft! 🥹✨ I have been waiting a couple days to post this review just to see how my skin is, Thank you</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H12" t="n">
         <v>5.839416058394161</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I12" t="n">
         <v>4.37956204379562</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>1.45985401459854</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L12" t="n">
         <v>0.24330900243309</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pixie.ugc/video/7481638622597336342</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B13" t="n">
         <v>337</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C13" t="n">
         <v>51</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D13" t="n">
         <v>8</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>1</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Quick day in the life #contentcreator #creator #macroinfluencer #microinfluencertiktok</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H13" t="n">
         <v>17.50741839762611</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I13" t="n">
         <v>15.13353115727003</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>2.373887240356083</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L13" t="n">
         <v>0.2967359050445104</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pixie.ugc/video/7481398055313427734</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B14" t="n">
         <v>374</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C14" t="n">
         <v>23</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D14" t="n">
         <v>8</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>2</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Unlock my March Beauty Secrets! ✨
 @TORRIDEN US @iUNIK @Meina Organics
 #beautytips , #skincare , #makeup ,</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H14" t="n">
         <v>8.288770053475936</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I14" t="n">
         <v>6.149732620320856</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>2.13903743315508</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L14" t="n">
         <v>0.53475935828877</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pixie.ugc/video/7481075507518278934</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B15" t="n">
         <v>374</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C15" t="n">
         <v>36</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D15" t="n">
         <v>5</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>5</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Guess what? I finally put together my UGC portfolio! 🎉
 #UGCCreator #UGCPortfolio #LetsCollab</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H15" t="n">
         <v>10.96256684491978</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I15" t="n">
         <v>9.62566844919786</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>1.336898395721925</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L15" t="n">
         <v>1.336898395721925</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pixie.ugc/video/7481027829451345174</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B16" t="n">
         <v>289</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C16" t="n">
         <v>25</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D16" t="n">
         <v>3</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>1</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Bright days call for brighter skin! ☀️🍊 This Vitamin C Serum is my glow-boosting essential. #SkincareThatWorks</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H16" t="n">
         <v>9.688581314878892</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I16" t="n">
         <v>8.650519031141869</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>1.038062283737024</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L16" t="n">
         <v>0.3460207612456748</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pixie.ugc/photo/7480689166339165462</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B17" t="n">
         <v>338</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C17" t="n">
         <v>42</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D17" t="n">
         <v>6</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>4</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>If you’re not using these yet… you’re missing out! 👀✨
 The Dive-In Hyaluronic Acid Cleanser + Beta-Glucan Serum = the ultimate duo🫶</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H17" t="n">
         <v>14.20118343195266</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I17" t="n">
         <v>12.42603550295858</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>1.775147928994083</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L17" t="n">
         <v>1.183431952662722</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pixie.ugc/video/7480551472208366870</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B18" t="n">
         <v>279</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C18" t="n">
         <v>34</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D18" t="n">
         <v>7</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>5</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>More like 8, I put extra day cos i can be indecisive sometimes 🤓 If you are struggling with coming up with content here something I’m doing for myself that I thought I would share 🫶</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H18" t="n">
         <v>14.69534050179212</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I18" t="n">
         <v>12.18637992831541</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>2.508960573476703</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L18" t="n">
         <v>1.792114695340502</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pixie.ugc/video/7480249046909619478</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B19" t="n">
         <v>271</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C19" t="n">
         <v>33</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D19" t="n">
         <v>3</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>3</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Let me introduce myself real quick #day1 #100daysofcontent #ugc #ugccommunity #contentcreator</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H19" t="n">
         <v>13.28413284132841</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I19" t="n">
         <v>12.17712177121771</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>1.107011070110701</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L19" t="n">
         <v>1.107011070110701</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pixie.ugc/video/7479164313412963606</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B20" t="n">
         <v>286</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C20" t="n">
         <v>40</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D20" t="n">
         <v>8</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>2</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Struggling with content ideas? I’m going to start my 100-Day UGC Content Challenge Starts NOW! 😳👀</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H20" t="n">
         <v>16.78321678321678</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I20" t="n">
         <v>13.98601398601399</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>2.797202797202797</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L20" t="n">
         <v>0.6993006993006993</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pixie.ugc/photo/7478773437016608022</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B21" t="n">
         <v>287</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C21" t="n">
         <v>39</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D21" t="n">
         <v>5</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Trying Korean beauty products for the first time, and I couldn’t have picked a better place than @PURESEOUL 💖✨ From authentic finds to expert-tested selections, they’ve got the best of K-beauty!</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>15.33101045296167</v>
-      </c>
-      <c r="I19" t="n">
-        <v>13.58885017421603</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1.742160278745644</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.6968641114982579</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>2025-03-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@pixie.ugc/video/7478734593370148118</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>277</v>
-      </c>
-      <c r="C20" t="n">
-        <v>27</v>
-      </c>
-      <c r="D20" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Being part time creator is hard when you have full time work and freelance job but we’re getting there!</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10.83032490974729</v>
-      </c>
-      <c r="I20" t="n">
-        <v>9.747292418772563</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1.083032490974729</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@pixie.ugc/video/7478647672052747542</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>299</v>
-      </c>
-      <c r="C21" t="n">
-        <v>20</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1483,445 +1482,445 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Golden Glow, Dark Allure 🌙 Bold black sapphires set in radiant gold. #ugcexample #ugccommunity</t>
+          <t>Trying Korean beauty products for the first time, and I couldn’t have picked a better place than @PURESEOUL 💖✨ From authentic finds to expert-tested selections, they’ve got the best of K-beauty!</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>7.692307692307693</v>
+        <v>15.33101045296167</v>
       </c>
       <c r="I21" t="n">
-        <v>6.688963210702341</v>
+        <v>13.58885017421603</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1.003344481605351</v>
+        <v>1.742160278745644</v>
       </c>
       <c r="L21" t="n">
-        <v>0.6688963210702341</v>
+        <v>0.6968641114982579</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
+          <t>2025-03-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@pixie.ugc/video/7478734593370148118</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>277</v>
+      </c>
+      <c r="C22" t="n">
+        <v>27</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Being part time creator is hard when you have full time work and freelance job but we’re getting there!</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10.83032490974729</v>
+      </c>
+      <c r="I22" t="n">
+        <v>9.747292418772563</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.083032490974729</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@pixie.ugc/video/7478089695298260226</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1589</v>
-      </c>
-      <c r="C22" t="n">
-        <v>41</v>
-      </c>
-      <c r="D22" t="n">
-        <v>12</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Honestly last couple weeks I just feel like giving up - I’m staying positive but urghh #contentcreator</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>3.335431088735054</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.580239144115796</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.7551919446192574</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.06293266205160479</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-    </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@pixie.ugc/photo/7478038213131652374</t>
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@pixie.ugc/video/7478647672052747542</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>299</v>
       </c>
       <c r="C23" t="n">
+        <v>20</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Golden Glow, Dark Allure 🌙 Bold black sapphires set in radiant gold. #ugcexample #ugccommunity</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7.692307692307693</v>
+      </c>
+      <c r="I23" t="n">
+        <v>6.688963210702341</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.003344481605351</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.6688963210702341</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@pixie.ugc/video/7478089695298260226</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1589</v>
+      </c>
+      <c r="C24" t="n">
+        <v>41</v>
+      </c>
+      <c r="D24" t="n">
+        <v>12</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Honestly last couple weeks I just feel like giving up - I’m staying positive but urghh #contentcreator</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3.335431088735054</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.580239144115796</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.7551919446192574</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.06293266205160479</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@pixie.ugc/photo/7478038213131652374</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>299</v>
+      </c>
+      <c r="C25" t="n">
         <v>48</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D25" t="n">
         <v>8</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>23</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>📍Zedwell Hotel London - there is two one in Soho and one near Greenwich, we stayed in at the one in Greenwich, not far really 20 min from central.</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H25" t="n">
         <v>18.72909698996655</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I25" t="n">
         <v>16.05351170568562</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>2.675585284280936</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L25" t="n">
         <v>7.692307692307693</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pixie.ugc/video/7477641567944330518</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B26" t="n">
         <v>340</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C26" t="n">
         <v>27</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D26" t="n">
         <v>3</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>2</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>It’s now available with @PURESEOUL for only £4.90 per pack or £14.50 for pack of 4!
 #ugcexamplevideo</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H26" t="n">
         <v>8.823529411764707</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I26" t="n">
         <v>7.941176470588235</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.8823529411764706</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L26" t="n">
         <v>0.5882352941176471</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pixie.ugc/video/7475681901328567574</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B27" t="n">
         <v>534</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C27" t="n">
         <v>23</v>
       </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>2</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Cute restaurant but feel like it’s very overrated for sure. #tiktokfood #viral #thingstiktokmademedo #lobsterpasta</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H27" t="n">
         <v>4.307116104868914</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I27" t="n">
         <v>4.307116104868914</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
         <v>0.3745318352059925</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pixie.ugc/video/7474355791911259415</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B28" t="n">
         <v>449</v>
-      </c>
-      <c r="C26" t="n">
-        <v>51</v>
-      </c>
-      <c r="D26" t="n">
-        <v>23</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>4</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Finally got my hands on the viral planner! #unboxingvideo #theproductivitymethod #ugccommunity</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>16.48106904231626</v>
-      </c>
-      <c r="I26" t="n">
-        <v>11.35857461024499</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>5.122494432071269</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.8908685968819599</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>2025-02-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@pixie.ugc/video/7473812918446918934</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>383</v>
-      </c>
-      <c r="C27" t="n">
-        <v>48</v>
-      </c>
-      <c r="D27" t="n">
-        <v>17</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>3</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Manifesting</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>16.97127937336814</v>
-      </c>
-      <c r="I27" t="n">
-        <v>12.53263707571801</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>4.43864229765013</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.7832898172323759</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>2025-02-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@pixie.ugc/photo/7472379331562573078</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>532</v>
       </c>
       <c r="C28" t="n">
         <v>51</v>
       </c>
       <c r="D28" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
+        <v>4</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Finally got my hands on the viral planner! #unboxingvideo #theproductivitymethod #ugccommunity</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>16.48106904231626</v>
+      </c>
+      <c r="I28" t="n">
+        <v>11.35857461024499</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>5.122494432071269</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.8908685968819599</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@pixie.ugc/video/7473812918446918934</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>383</v>
+      </c>
+      <c r="C29" t="n">
+        <v>48</v>
+      </c>
+      <c r="D29" t="n">
+        <v>17</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>3</v>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>If you are looking for personalised gifts, I highly recommend @Sketch &amp; Stitch !! #giftforhim #giftideas</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>11.84210526315789</v>
-      </c>
-      <c r="I28" t="n">
-        <v>9.586466165413533</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2.255639097744361</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.5639097744360901</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>2025-02-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@pixie.ugc/video/7471623631253097750</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>484</v>
-      </c>
-      <c r="C29" t="n">
-        <v>69</v>
-      </c>
-      <c r="D29" t="n">
-        <v>19</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>19</v>
-      </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Here is the ones I use, if anyone has more suggestions, please do let me know! #travelugcexample #ugccommunity</t>
+          <t>Manifesting</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>18.18181818181818</v>
+        <v>16.97127937336814</v>
       </c>
       <c r="I29" t="n">
-        <v>14.25619834710744</v>
+        <v>12.53263707571801</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>3.925619834710744</v>
+        <v>4.43864229765013</v>
       </c>
       <c r="L29" t="n">
-        <v>3.925619834710744</v>
+        <v>0.7832898172323759</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-02-23</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@pixie.ugc/photo/7471011986839489814</t>
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@pixie.ugc/photo/7472379331562573078</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>835</v>
+        <v>532</v>
       </c>
       <c r="C30" t="n">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D30" t="n">
         <v>12</v>
@@ -1930,553 +1929,553 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G30" t="inlineStr">
+        <is>
+          <t>If you are looking for personalised gifts, I highly recommend @Sketch &amp; Stitch !! #giftforhim #giftideas</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>11.84210526315789</v>
+      </c>
+      <c r="I30" t="n">
+        <v>9.586466165413533</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.255639097744361</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.5639097744360901</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@pixie.ugc/video/7471623631253097750</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>484</v>
+      </c>
+      <c r="C31" t="n">
+        <v>69</v>
+      </c>
+      <c r="D31" t="n">
+        <v>19</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>19</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Here is the ones I use, if anyone has more suggestions, please do let me know! #travelugcexample #ugccommunity</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="I31" t="n">
+        <v>14.25619834710744</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.925619834710744</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3.925619834710744</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@pixie.ugc/photo/7471011986839489814</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>835</v>
+      </c>
+      <c r="C32" t="n">
+        <v>58</v>
+      </c>
+      <c r="D32" t="n">
+        <v>12</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>Quick recap of the weekend trip to Paris.
 #ParisIn38 #WeekendEscape #travelugcexample #ugccommunity</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H32" t="n">
         <v>8.383233532934131</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I32" t="n">
         <v>6.946107784431138</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>1.437125748502994</v>
       </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-02-15</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pixie.ugc/video/7470047495284985120</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B33" t="n">
         <v>569</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C33" t="n">
         <v>114</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D33" t="n">
         <v>25</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>75</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>No gatekeeping! Here it is! If you’re at the stage of trying to reach out to brands, here’s the list I gathered!</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H33" t="n">
         <v>24.42882249560633</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I33" t="n">
         <v>20.03514938488576</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>4.393673110720562</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L33" t="n">
         <v>13.18101933216169</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-02-14</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pixie.ugc/video/7469471366266326305</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B34" t="n">
         <v>847</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C34" t="n">
         <v>70</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D34" t="n">
         <v>10</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>6</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>UGC example - Luxury doesn’t have to be complicated. A perfect bathroom setup = ultimate comfort.</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H34" t="n">
         <v>9.445100354191263</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I34" t="n">
         <v>8.264462809917356</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>1.180637544273908</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L34" t="n">
         <v>0.7083825265643447</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-02-11</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pixie.ugc/video/7468936581437492513</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B35" t="n">
         <v>2169</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C35" t="n">
         <v>69</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D35" t="n">
         <v>16</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>7</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Place to eat in Paris - Coco Paris is recommended 🫶 #ugcexample #ugccommunity #ugcopportunities</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H35" t="n">
         <v>3.918856615952051</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I35" t="n">
         <v>3.18118948824343</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.7376671277086214</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L35" t="n">
         <v>0.3227293683725219</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-02-10</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pixie.ugc/video/7468254542237404449</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B36" t="n">
         <v>147</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C36" t="n">
         <v>135</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D36" t="n">
         <v>31</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>19</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>UGC EXAMPLE - Quick Night away in london? Stay in Meritt Kensington London Hotel ✨ #travelugcexample</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H36" t="n">
         <v>112.9251700680272</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I36" t="n">
         <v>91.83673469387756</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>21.08843537414966</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L36" t="n">
         <v>12.92517006802721</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-02-08</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pixie.ugc/video/7468196575077092640</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B37" t="n">
         <v>344</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C37" t="n">
         <v>37</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D37" t="n">
         <v>9</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>2</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Week 2 - sending out emails/reaching out, finishing portfolio - stress is real #ugccontentcreator #ugccommunity</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H37" t="n">
         <v>13.37209302325581</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I37" t="n">
         <v>10.75581395348837</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>2.616279069767442</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L37" t="n">
         <v>0.5813953488372093</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-02-06</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pixie.ugc/video/7467697844053478689</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B38" t="n">
         <v>900</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C38" t="n">
         <v>55</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D38" t="n">
         <v>12</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>1</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>This was painfully long - how do people get so confident to talk in front of camera?
 #pitching #introvideo #ugc</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H38" t="n">
         <v>7.444444444444444</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I38" t="n">
         <v>6.111111111111111</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L38" t="n">
         <v>0.1111111111111111</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-02-06</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pixie.ugc/photo/7466946700561698080</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B39" t="n">
         <v>871</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C39" t="n">
         <v>45</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D39" t="n">
         <v>8</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>5</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Get your brand list and just do it! #ugccommunity #ugcwork #ugccreator #ugctips #ugcopportunities</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H39" t="n">
         <v>6.084959816303099</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I39" t="n">
         <v>5.166475315729048</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.9184845005740528</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L39" t="n">
         <v>0.5740528128587831</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-02-05</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pixie.ugc/video/7466740200140573985</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B40" t="n">
         <v>1345</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C40" t="n">
         <v>41</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D40" t="n">
         <v>13</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>2</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>I’m so excited to see what February brings to me in this UGC community #ugccommunity #ugccreator</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H40" t="n">
         <v>4.014869888475837</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I40" t="n">
         <v>3.048327137546468</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.966542750929368</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L40" t="n">
         <v>0.1486988847583643</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-02-03</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pixie.ugc/video/7466534886694866209</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B41" t="n">
         <v>980</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C41" t="n">
         <v>59</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D41" t="n">
         <v>15</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>My go to @ZARA perfume - wonder rose 🌹 #ugcexample #ugccommunity #ugccreator #ugcjourney</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>7.551020408163265</v>
-      </c>
-      <c r="I39" t="n">
-        <v>6.020408163265306</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>1.530612244897959</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.1020408163265306</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>2025-02-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@pixie.ugc/video/7465959280676506912</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>888</v>
-      </c>
-      <c r="C40" t="n">
-        <v>65</v>
-      </c>
-      <c r="D40" t="n">
-        <v>17</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>3</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>My attempt to getting my skin glowing again - if anyone has any recommendation please do let me know!</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>9.234234234234235</v>
-      </c>
-      <c r="I40" t="n">
-        <v>7.31981981981982</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>1.914414414414414</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.3378378378378378</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>2025-02-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@pixie.ugc/video/7465812858165611809</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>896</v>
-      </c>
-      <c r="C41" t="n">
-        <v>57</v>
-      </c>
-      <c r="D41" t="n">
-        <v>14</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -2486,279 +2485,379 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
+          <t>My go to @ZARA perfume - wonder rose 🌹 #ugcexample #ugccommunity #ugccreator #ugcjourney</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7.551020408163265</v>
+      </c>
+      <c r="I41" t="n">
+        <v>6.020408163265306</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1.530612244897959</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.1020408163265306</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@pixie.ugc/video/7465959280676506912</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>888</v>
+      </c>
+      <c r="C42" t="n">
+        <v>65</v>
+      </c>
+      <c r="D42" t="n">
+        <v>17</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>My attempt to getting my skin glowing again - if anyone has any recommendation please do let me know!</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9.234234234234235</v>
+      </c>
+      <c r="I42" t="n">
+        <v>7.31981981981982</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1.914414414414414</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.3378378378378378</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@pixie.ugc/video/7465812858165611809</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>896</v>
+      </c>
+      <c r="C43" t="n">
+        <v>57</v>
+      </c>
+      <c r="D43" t="n">
+        <v>14</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Amazing Oats Gel moisturiser by @aveenoukire for dry skin!
 #ugccommunity #ugcexample #ugccreator</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H43" t="n">
         <v>7.924107142857142</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I43" t="n">
         <v>6.361607142857142</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>1.5625</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L43" t="n">
         <v>0.1116071428571428</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-01-31</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pixie.ugc/video/7465397258326936864</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B44" t="n">
         <v>852</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C44" t="n">
         <v>68</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D44" t="n">
         <v>14</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>3</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>I keep wanting to change my niche… I feel so stuck #ugctips #ugccommunity #creators #creatorfunds</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H44" t="n">
         <v>9.624413145539906</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I44" t="n">
         <v>7.981220657276995</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>1.643192488262911</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L44" t="n">
         <v>0.3521126760563381</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-01-31</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pixie.ugc/video/7465391136975162657</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B45" t="n">
         <v>806</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C45" t="n">
         <v>33</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D45" t="n">
         <v>6</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>2</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Abbot Lyon Jewellery - great for Valentine’s Day present! 😍 @Abbott Lyon #valentinesday #valentinesdaygift</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H45" t="n">
         <v>4.838709677419355</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I45" t="n">
         <v>4.094292803970223</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.7444168734491315</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L45" t="n">
         <v>0.2481389578163772</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-01-30</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pixie.ugc/video/7465009196614864160</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B46" t="n">
         <v>844</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C46" t="n">
         <v>76</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D46" t="n">
         <v>2</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="inlineStr">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>Come with me to get my nails done 🫶 #ugccommunity #nailsinspo #grwmroutine #ugccreator</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H46" t="n">
         <v>9.24170616113744</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I46" t="n">
         <v>9.004739336492891</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.2369668246445498</v>
       </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-01-30</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pixie.ugc/video/7464726825017642273</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B47" t="n">
         <v>877</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C47" t="n">
         <v>26</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D47" t="n">
         <v>2</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>1</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Any tips on making portofolio stand out? #contentcreator #ugccommunity #ugccreators #usergeneratedcontent</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H47" t="n">
         <v>3.192702394526796</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I47" t="n">
         <v>2.964652223489168</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.2280501710376283</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L47" t="n">
         <v>0.1140250855188141</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-01-29</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pixie.ugc/video/7464562836287606048</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B48" t="n">
         <v>2187</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C48" t="n">
         <v>73</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D48" t="n">
         <v>12</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>2</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>I’m hoping this ends up on the correct fyp #contentcreator #ugccommunity #ugccreators</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H48" t="n">
         <v>3.886602652034751</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I48" t="n">
         <v>3.337905807041609</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.5486968449931412</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L48" t="n">
         <v>0.09144947416552354</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-01-28</t>
         </is>
